--- a/main_variaveis_senha_2023.xlsx
+++ b/main_variaveis_senha_2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PLENO COMEX\CAPAS MODELO PROGRESS RAIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Financeiro\Documents\FINANCEIRO\py\progressv231114\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,26 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
   <si>
     <t>filiais_nomes</t>
   </si>
   <si>
-    <t>SETE LAGOAS</t>
-  </si>
-  <si>
-    <t>CURITIBA PRLCB</t>
-  </si>
-  <si>
-    <t>DIADEMA</t>
-  </si>
-  <si>
-    <t>HORTOLANDIA</t>
-  </si>
-  <si>
-    <t>CURITIBA PRSCT</t>
-  </si>
-  <si>
     <t>dir_rede</t>
   </si>
   <si>
@@ -60,27 +45,9 @@
     <t>Produção</t>
   </si>
   <si>
-    <t>I:\</t>
-  </si>
-  <si>
-    <t>F:\</t>
-  </si>
-  <si>
-    <t>PLENO COMEX</t>
-  </si>
-  <si>
     <t>grupo</t>
   </si>
   <si>
-    <t>PLENO_PADULA</t>
-  </si>
-  <si>
-    <t>PROGRESS RAIL</t>
-  </si>
-  <si>
-    <t>EMD</t>
-  </si>
-  <si>
     <t>apelido</t>
   </si>
   <si>
@@ -99,48 +66,9 @@
     <t>EXP</t>
   </si>
   <si>
-    <t>PRSSL</t>
-  </si>
-  <si>
-    <t>PRLCB</t>
-  </si>
-  <si>
-    <t>PRSDD</t>
-  </si>
-  <si>
-    <t>PRSHT</t>
-  </si>
-  <si>
-    <t>PRSCT</t>
-  </si>
-  <si>
     <t>ref_interna_imp</t>
   </si>
   <si>
-    <t>DIEM</t>
-  </si>
-  <si>
-    <t>DICB</t>
-  </si>
-  <si>
-    <t>DIDI</t>
-  </si>
-  <si>
-    <t>DIHO</t>
-  </si>
-  <si>
-    <t>DEEM</t>
-  </si>
-  <si>
-    <t>DECB</t>
-  </si>
-  <si>
-    <t>DEDI</t>
-  </si>
-  <si>
-    <t>DEHO</t>
-  </si>
-  <si>
     <t>ref_interna_exp</t>
   </si>
   <si>
@@ -189,9 +117,6 @@
     <t>arquivo_em_massa</t>
   </si>
   <si>
-    <t>progress_em_massa.xlsx</t>
-  </si>
-  <si>
     <t>modelo_capa</t>
   </si>
   <si>
@@ -204,9 +129,6 @@
     <t>modelo_capa_prestacao_de_contas.xlsx</t>
   </si>
   <si>
-    <t>modelo_progress_em_massa.xlsx</t>
-  </si>
-  <si>
     <t>modelo_saude_financeira.xlsx</t>
   </si>
   <si>
@@ -258,42 +180,15 @@
     <t>banco2</t>
   </si>
   <si>
-    <t>ANDREZZA\</t>
-  </si>
-  <si>
     <t>FINANCEIRO</t>
   </si>
   <si>
-    <t>Saude Financeira Pleno 2020 a 2023.xlsx</t>
-  </si>
-  <si>
-    <t>BACKUP_Saude Financeira Pleno 2014 a 2019.xlsx</t>
-  </si>
-  <si>
     <t>saude_financeira.xlsx</t>
   </si>
   <si>
     <t>saude_financeira_processos.xlsx</t>
   </si>
   <si>
-    <t>BRADESCO P COMEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB. </t>
-  </si>
-  <si>
-    <t>BRADESCO</t>
-  </si>
-  <si>
-    <t>B.BRASIL</t>
-  </si>
-  <si>
-    <t>Saude Financeira Pleno__2020___A___2023.xlsx</t>
-  </si>
-  <si>
-    <t>BACKUP_Saude Financeira Pleno__2014___A___2022.xlsx</t>
-  </si>
-  <si>
     <t>Variáveis</t>
   </si>
   <si>
@@ -318,9 +213,6 @@
     <t>USIFAST</t>
   </si>
   <si>
-    <t>CONFERENCIA ARMAZENAGEM EADI TORA.xlsx</t>
-  </si>
-  <si>
     <t>arq_aud_porto_santos</t>
   </si>
   <si>
@@ -363,10 +255,91 @@
     <t>Desenvolvimento</t>
   </si>
   <si>
-    <t>progress_em_massa auditoria.xlsx</t>
-  </si>
-  <si>
-    <t>PLENO COMEX\FINANCEIRO\</t>
+    <t>EMPRESA</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>EMPRESA\FINANCEIRO\</t>
+  </si>
+  <si>
+    <t>Saude Financeira.xlsx</t>
+  </si>
+  <si>
+    <t>BACKUP_Saude Financeira.xlsx</t>
+  </si>
+  <si>
+    <t>BANCO 1</t>
+  </si>
+  <si>
+    <t>BANCO 2</t>
+  </si>
+  <si>
+    <t>ABA BANCO 1</t>
+  </si>
+  <si>
+    <t>ABA BANCO 2</t>
+  </si>
+  <si>
+    <t>CONFERENCIA ARMAZENAGEM EADI.xlsx</t>
+  </si>
+  <si>
+    <t>EXP 1</t>
+  </si>
+  <si>
+    <t>EXP 2</t>
+  </si>
+  <si>
+    <t>EXP 3</t>
+  </si>
+  <si>
+    <t>EXP 4</t>
+  </si>
+  <si>
+    <t>EXP 5</t>
+  </si>
+  <si>
+    <t>IMP 1</t>
+  </si>
+  <si>
+    <t>IMP 2</t>
+  </si>
+  <si>
+    <t>IMP 3</t>
+  </si>
+  <si>
+    <t>IMP 4</t>
+  </si>
+  <si>
+    <t>IMP 5</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>FILIAL 1</t>
+  </si>
+  <si>
+    <t>FILIAL 2</t>
+  </si>
+  <si>
+    <t>FILIAL 3</t>
+  </si>
+  <si>
+    <t>FILIAL 4</t>
+  </si>
+  <si>
+    <t>FILIAL 5</t>
+  </si>
+  <si>
+    <t>em_massa auditoria.xlsx</t>
+  </si>
+  <si>
+    <t>em_massa.xlsx</t>
+  </si>
+  <si>
+    <t>modelo_em_massa.xlsx</t>
   </si>
 </sst>
 </file>
@@ -829,7 +802,7 @@
       <selection activeCell="C11" sqref="C11"/>
       <selection pane="topRight" activeCell="C11" sqref="C11"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -844,141 +817,141 @@
   <sheetData>
     <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C15" si="0">IF($C$2="Desenvolvimento",D3,E3)</f>
         <v>C:\</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>C:\</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PLENO COMEX</v>
+        <v>EMPRESA</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PLENO COMEX</v>
+        <v>EMPRESA</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PROGRESS RAIL</v>
+        <v>CLIENTE</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>EMD</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>16</v>
+        <v>CLIENTE</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PC</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FATURAMENTO</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="0"/>
@@ -993,7 +966,7 @@
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C12" s="6">
         <f t="shared" si="0"/>
@@ -1008,47 +981,47 @@
     </row>
     <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>importação-desembaraço</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>IMPORTAÇÃO</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>DESEMBARAÇO</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1081,7 +1054,7 @@
       <selection activeCell="C11" sqref="C11"/>
       <selection pane="topRight" activeCell="C11" sqref="C11"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1095,137 +1068,137 @@
   <sheetData>
     <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>var_gerais!C2</f>
         <v>Desenvolvimento</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C10" si="0">IF($C$2="Desenvolvimento",D3,E3)</f>
         <v xml:space="preserve">CAPA - Prestação de Contas </v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>progress_em_massa auditoria.xlsx</v>
+        <v>em_massa auditoria.xlsx</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>modelo_capa_prestacao_de_contas.xlsx</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>modelo_progress_em_massa.xlsx</v>
+        <v>modelo_em_massa.xlsx</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>modelo_saude_financeira.xlsx</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Aérea</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Marítima</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Rodoviária</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1227,7 @@
       <selection activeCell="C11" sqref="C11"/>
       <selection pane="topRight" activeCell="C11" sqref="C11"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1268,116 +1241,116 @@
   <sheetData>
     <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>var_gerais!C2</f>
         <v>Desenvolvimento</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C12" si="0">IF($C$2="Desenvolvimento",D3,E3)</f>
-        <v>PLENO COMEX\FINANCEIRO\</v>
+        <v>EMPRESA\FINANCEIRO\</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FINANCEIRO</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Saude Financeira Pleno 2020 a 2023.xlsx</v>
+        <v>Saude Financeira.xlsx</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>BACKUP_Saude Financeira Pleno 2014 a 2019.xlsx</v>
+        <v>BACKUP_Saude Financeira.xlsx</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>saude_financeira.xlsx</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>saude_financeira_processos.xlsx</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>BRADESCO P COMEX</v>
+        <v>ABA BANCO 1</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>82</v>
@@ -1388,11 +1361,11 @@
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">BB. </v>
+        <v>ABA BANCO 2</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>83</v>
@@ -1403,32 +1376,32 @@
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>BRADESCO</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>84</v>
+        <v>BANCO 1</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>B.BRASIL</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>85</v>
+        <v>BANCO 2</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1419,7 @@
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1460,67 +1433,67 @@
   <sheetData>
     <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>var_gerais!C2</f>
         <v>Desenvolvimento</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C15" si="0">IF($C$2="Desenvolvimento",D3,E3)</f>
         <v>AUDITORIA\</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SANTOS</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>USIFAST</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="0"/>
@@ -1531,37 +1504,37 @@
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>CONFERENCIA ARMAZENAGEM EADI TORA.xlsx</v>
+        <v>CONFERENCIA ARMAZENAGEM EADI.xlsx</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>BH AIRPORT</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="0"/>
@@ -1572,22 +1545,22 @@
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>GRU</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="0"/>
@@ -1598,22 +1571,22 @@
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>VCP</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" si="0"/>
@@ -1624,22 +1597,22 @@
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="C14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CURITIBA</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6">
         <f t="shared" si="0"/>
@@ -1663,7 +1636,7 @@
       <pane xSplit="23" ySplit="37" topLeftCell="X38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1677,105 +1650,105 @@
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="18" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vfsm5ASgdyZER2NdKAxQ/gUFCtPcCn6Hqa+7RCoXR6wQV2sEArP0rCKFejIyn4jpQ1xPWxHUeYzvnWzlVDgDyw==" saltValue="gimmW7YrGwfttxx2Bz1Zlw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Rwg2ppL744TxYBYTkcE2ncljWthR346LuHBabthR8P7gHCyyMo3W540bZm9jdFjWjKE0bhE5b9XcjipO8V6+Vw==" saltValue="SXaRSr0FpxIkWPhGwPhgDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/main_variaveis_senha_2023.xlsx
+++ b/main_variaveis_senha_2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Financeiro\Documents\FINANCEIRO\py\progressv231114\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EMPRESA\CAPAS MODELO CLIENTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="var_gerais" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="104">
   <si>
     <t>filiais_nomes</t>
   </si>
@@ -797,12 +797,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="23" ySplit="37" topLeftCell="X38" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C11" sqref="C11"/>
       <selection pane="topRight" activeCell="C11" sqref="C11"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1054,7 @@
       <selection activeCell="C11" sqref="C11"/>
       <selection pane="topRight" activeCell="C11" sqref="C11"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1412,14 +1412,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="23" ySplit="37" topLeftCell="X38" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="23" ySplit="38" topLeftCell="X39" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="X38" sqref="X38"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1451,7 +1451,7 @@
         <v>54</v>
       </c>
       <c r="C3" s="6" t="str">
-        <f t="shared" ref="C3:C15" si="0">IF($C$2="Desenvolvimento",D3,E3)</f>
+        <f t="shared" ref="C3:C16" si="0">IF($C$2="Desenvolvimento",D3,E3)</f>
         <v>AUDITORIA\</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1463,166 +1463,180 @@
     </row>
     <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>SANTOS</v>
+        <v>em_massa auditoria.xlsx</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>USIFAST</v>
+        <v>SANTOS</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>USIFAST</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>CONFERENCIA ARMAZENAGEM EADI.xlsx</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>84</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>BH AIRPORT</v>
+        <v>CONFERENCIA ARMAZENAGEM EADI.xlsx</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>BH AIRPORT</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>GRU</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GRU</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>VCP</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>VCP</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>CURITIBA</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>CURITIBA</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qzVaKRWqZxD8yTTe/uOVVxJazKK4A5NRnebdcha2pqJTs+lGmcbWKgvXD13gKwLh5oTkz8YK7uLR3ZDh6JpkiQ==" saltValue="jc2DPcHXjj2NsfrrdtcoRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
